--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H2">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I2">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J2">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N2">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O2">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P2">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q2">
-        <v>6365.301004577635</v>
+        <v>7454.73977490429</v>
       </c>
       <c r="R2">
-        <v>38191.80602746581</v>
+        <v>44728.43864942574</v>
       </c>
       <c r="S2">
-        <v>0.314877261866938</v>
+        <v>0.2773027497689556</v>
       </c>
       <c r="T2">
-        <v>0.2563204104406048</v>
+        <v>0.2435266240859864</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H3">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I3">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J3">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N3">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O3">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P3">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q3">
-        <v>2.07013027116</v>
+        <v>13.3183348303225</v>
       </c>
       <c r="R3">
-        <v>8.28052108464</v>
+        <v>53.27333932129</v>
       </c>
       <c r="S3">
-        <v>0.0001024047332595821</v>
+        <v>0.0004954178123326247</v>
       </c>
       <c r="T3">
-        <v>5.557387261421011E-05</v>
+        <v>0.0002900498401114557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H4">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I4">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J4">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N4">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O4">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P4">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q4">
-        <v>6.518108318725001</v>
+        <v>6402.510598911378</v>
       </c>
       <c r="R4">
-        <v>39.10864991235</v>
+        <v>38415.06359346827</v>
       </c>
       <c r="S4">
-        <v>0.0003224362993165984</v>
+        <v>0.2381617397940363</v>
       </c>
       <c r="T4">
-        <v>0.0002624737146523634</v>
+        <v>0.209153080980302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.6391945</v>
+        <v>41.0602225</v>
       </c>
       <c r="H5">
-        <v>101.278389</v>
+        <v>82.120445</v>
       </c>
       <c r="I5">
-        <v>0.5364920657213447</v>
+        <v>0.7047920429741388</v>
       </c>
       <c r="J5">
-        <v>0.4366943366889107</v>
+        <v>0.6188016932468634</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N5">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O5">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P5">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q5">
-        <v>4471.395248435756</v>
+        <v>5076.381078808161</v>
       </c>
       <c r="R5">
-        <v>26828.37149061453</v>
+        <v>30458.28647284896</v>
       </c>
       <c r="S5">
-        <v>0.2211899628218305</v>
+        <v>0.1888321355988142</v>
       </c>
       <c r="T5">
-        <v>0.1800558786610394</v>
+        <v>0.1658319383404635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>2.001357</v>
       </c>
       <c r="I6">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J6">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N6">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O6">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P6">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q6">
-        <v>83.85625566917001</v>
+        <v>121.119619941036</v>
       </c>
       <c r="R6">
-        <v>754.7063010225301</v>
+        <v>1090.076579469324</v>
       </c>
       <c r="S6">
-        <v>0.004148182176543305</v>
+        <v>0.00450542938784893</v>
       </c>
       <c r="T6">
-        <v>0.005065134356335166</v>
+        <v>0.005934986272917268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>2.001357</v>
       </c>
       <c r="I7">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J7">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N7">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O7">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P7">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q7">
-        <v>0.02727182472</v>
+        <v>0.216387385959</v>
       </c>
       <c r="R7">
-        <v>0.16363094832</v>
+        <v>1.298324315754</v>
       </c>
       <c r="S7">
-        <v>1.349076420388147E-06</v>
+        <v>8.049216867870801E-06</v>
       </c>
       <c r="T7">
-        <v>1.098192418656637E-06</v>
+        <v>7.068803363838842E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>2.001357</v>
       </c>
       <c r="I8">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J8">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N8">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O8">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P8">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q8">
-        <v>0.08586933395</v>
+        <v>104.023704894321</v>
       </c>
       <c r="R8">
-        <v>0.77282400555</v>
+        <v>936.2133440488891</v>
       </c>
       <c r="S8">
-        <v>4.24776467492566E-06</v>
+        <v>0.003869492467793073</v>
       </c>
       <c r="T8">
-        <v>5.186729482194963E-06</v>
+        <v>0.005097268806708174</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.001357</v>
       </c>
       <c r="I9">
-        <v>0.007067727951161579</v>
+        <v>0.01145098916394972</v>
       </c>
       <c r="J9">
-        <v>0.008629494171680676</v>
+        <v>0.01508081331502116</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N9">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O9">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P9">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q9">
-        <v>58.906006625781</v>
+        <v>82.47764046854401</v>
       </c>
       <c r="R9">
-        <v>530.154059632029</v>
+        <v>742.2987642168961</v>
       </c>
       <c r="S9">
-        <v>0.00291394893352296</v>
+        <v>0.003068018091439843</v>
       </c>
       <c r="T9">
-        <v>0.00355807489344466</v>
+        <v>0.004041489432031878</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H10">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I10">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J10">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N10">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O10">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P10">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q10">
-        <v>543.1695538259368</v>
+        <v>1309.929692391204</v>
       </c>
       <c r="R10">
-        <v>4888.525984433431</v>
+        <v>11789.36723152084</v>
       </c>
       <c r="S10">
-        <v>0.02686938790721744</v>
+        <v>0.04872700009287</v>
       </c>
       <c r="T10">
-        <v>0.03280884349586446</v>
+        <v>0.06418790569697388</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H11">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I11">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J11">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N11">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O11">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P11">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q11">
-        <v>0.17665020632</v>
+        <v>2.340267101767667</v>
       </c>
       <c r="R11">
-        <v>1.05990123792</v>
+        <v>14.041602610606</v>
       </c>
       <c r="S11">
-        <v>8.738492214943115E-06</v>
+        <v>8.705367619922458E-05</v>
       </c>
       <c r="T11">
-        <v>7.113419044252155E-06</v>
+        <v>7.645033414466739E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H12">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I12">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J12">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N12">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O12">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P12">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q12">
-        <v>0.5562090441166667</v>
+        <v>1125.034406646486</v>
       </c>
       <c r="R12">
-        <v>5.00588139705</v>
+        <v>10125.30965981837</v>
       </c>
       <c r="S12">
-        <v>2.751442244618627E-05</v>
+        <v>0.04184923202792298</v>
       </c>
       <c r="T12">
-        <v>3.359646237693211E-05</v>
+        <v>0.0551278460356553</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.321189</v>
+        <v>7.215007666666668</v>
       </c>
       <c r="H13">
-        <v>12.963567</v>
+        <v>21.645023</v>
       </c>
       <c r="I13">
-        <v>0.0457804204010858</v>
+        <v>0.1238444334651152</v>
       </c>
       <c r="J13">
-        <v>0.05589658710099795</v>
+        <v>0.1631016110880464</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N13">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O13">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P13">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q13">
-        <v>381.557095308711</v>
+        <v>892.0099836897496</v>
       </c>
       <c r="R13">
-        <v>3434.013857778399</v>
+        <v>8028.089853207745</v>
       </c>
       <c r="S13">
-        <v>0.01887477957920723</v>
+        <v>0.03318114766812293</v>
       </c>
       <c r="T13">
-        <v>0.02304703372371232</v>
+        <v>0.04370940902127254</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H14">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I14">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J14">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N14">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O14">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P14">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q14">
-        <v>76.50411550513667</v>
+        <v>182.801538277596</v>
       </c>
       <c r="R14">
-        <v>459.0246930308201</v>
+        <v>1096.809229665576</v>
       </c>
       <c r="S14">
-        <v>0.003784488179661163</v>
+        <v>0.0067998844704171</v>
       </c>
       <c r="T14">
-        <v>0.003080697404972642</v>
+        <v>0.00597164258426978</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H15">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I15">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J15">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N15">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O15">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P15">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q15">
-        <v>0.02488075352</v>
+        <v>0.326585792099</v>
       </c>
       <c r="R15">
-        <v>0.09952301408</v>
+        <v>1.306343168396</v>
       </c>
       <c r="S15">
-        <v>1.230795454280896E-06</v>
+        <v>1.214839698219887E-05</v>
       </c>
       <c r="T15">
-        <v>6.679385572634668E-07</v>
+        <v>7.112462480318516E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H16">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I16">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J16">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N16">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O16">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P16">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q16">
-        <v>0.07834069611666666</v>
+        <v>156.999281216981</v>
       </c>
       <c r="R16">
-        <v>0.4700441767</v>
+        <v>941.9956873018861</v>
       </c>
       <c r="S16">
-        <v>3.875339731495175E-06</v>
+        <v>0.005840087475592308</v>
       </c>
       <c r="T16">
-        <v>3.154653545588156E-06</v>
+        <v>0.0051287511158213</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.608629</v>
+        <v>1.006859</v>
       </c>
       <c r="H17">
-        <v>1.217258</v>
+        <v>2.013718</v>
       </c>
       <c r="I17">
-        <v>0.006448061283200629</v>
+        <v>0.01728257102349843</v>
       </c>
       <c r="J17">
-        <v>0.005248599233635816</v>
+        <v>0.01517395708366762</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N17">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O17">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P17">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q17">
-        <v>53.74139232527099</v>
+        <v>124.480571838784</v>
       </c>
       <c r="R17">
-        <v>322.448353951626</v>
+        <v>746.883431032704</v>
       </c>
       <c r="S17">
-        <v>0.00265846696835369</v>
+        <v>0.004630450680506819</v>
       </c>
       <c r="T17">
-        <v>0.002164079236560324</v>
+        <v>0.00406645092109622</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H18">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I18">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J18">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N18">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O18">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P18">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q18">
-        <v>4008.605827157066</v>
+        <v>633.0602971726199</v>
       </c>
       <c r="R18">
-        <v>36077.45244441359</v>
+        <v>5697.54267455358</v>
       </c>
       <c r="S18">
-        <v>0.1982968010234455</v>
+        <v>0.023548690695615</v>
       </c>
       <c r="T18">
-        <v>0.2421301420402374</v>
+        <v>0.03102060735888641</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H19">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I19">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J19">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.5</v>
       </c>
       <c r="M19">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N19">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O19">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P19">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q19">
-        <v>1.303683244826667</v>
+        <v>1.130999774655</v>
       </c>
       <c r="R19">
-        <v>7.822099468959999</v>
+        <v>6.78599864793</v>
       </c>
       <c r="S19">
-        <v>6.449030614225669E-05</v>
+        <v>4.207113285908458E-05</v>
       </c>
       <c r="T19">
-        <v>5.249722270136126E-05</v>
+        <v>3.694677014628317E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H20">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I20">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J20">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N20">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O20">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P20">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q20">
-        <v>4.104837614072222</v>
+        <v>543.704459817945</v>
       </c>
       <c r="R20">
-        <v>36.94353852664999</v>
+        <v>4893.340138361505</v>
       </c>
       <c r="S20">
-        <v>0.0002030571731639956</v>
+        <v>0.02022481620038796</v>
       </c>
       <c r="T20">
-        <v>0.0002479427904370186</v>
+        <v>0.0266420791867934</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.89049033333333</v>
+        <v>3.486855</v>
       </c>
       <c r="H21">
-        <v>95.671471</v>
+        <v>10.460565</v>
       </c>
       <c r="I21">
-        <v>0.3378607263548905</v>
+        <v>0.05985129912543923</v>
       </c>
       <c r="J21">
-        <v>0.4125183070239926</v>
+        <v>0.07882343226852796</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N21">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O21">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P21">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q21">
-        <v>2815.901563101543</v>
+        <v>431.08886578848</v>
       </c>
       <c r="R21">
-        <v>25343.11406791388</v>
+        <v>3879.79979209632</v>
       </c>
       <c r="S21">
-        <v>0.1392963778521387</v>
+        <v>0.01603572109657718</v>
       </c>
       <c r="T21">
-        <v>0.1700877249706169</v>
+        <v>0.02112379895270186</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H22">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I22">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J22">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>125.6990966666667</v>
+        <v>181.556244</v>
       </c>
       <c r="N22">
-        <v>377.09729</v>
+        <v>544.668732</v>
       </c>
       <c r="O22">
-        <v>0.5869187672767672</v>
+        <v>0.393453292404907</v>
       </c>
       <c r="P22">
-        <v>0.5869561130196213</v>
+        <v>0.3935455037432071</v>
       </c>
       <c r="Q22">
-        <v>787.2326601726845</v>
+        <v>875.568058739568</v>
       </c>
       <c r="R22">
-        <v>7085.093941554161</v>
+        <v>7880.112528656111</v>
       </c>
       <c r="S22">
-        <v>0.03894264612296187</v>
+        <v>0.03256953798920042</v>
       </c>
       <c r="T22">
-        <v>0.04755088528160677</v>
+        <v>0.04290373774417334</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H23">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I23">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J23">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.04088</v>
+        <v>0.324361</v>
       </c>
       <c r="N23">
-        <v>0.08176</v>
+        <v>0.648722</v>
       </c>
       <c r="O23">
-        <v>0.0001908783741692302</v>
+        <v>0.0007029276469155644</v>
       </c>
       <c r="P23">
-        <v>0.0001272603465288341</v>
+        <v>0.0004687282586276696</v>
       </c>
       <c r="Q23">
-        <v>0.2560246811733333</v>
+        <v>1.564254276492</v>
       </c>
       <c r="R23">
-        <v>1.53614808704</v>
+        <v>9.385525658952</v>
       </c>
       <c r="S23">
-        <v>1.266497067777932E-05</v>
+        <v>5.818741167456096E-05</v>
       </c>
       <c r="T23">
-        <v>1.030970119309043E-05</v>
+        <v>5.110004838110593E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H24">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I24">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J24">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1287166666666667</v>
+        <v>155.929759</v>
       </c>
       <c r="N24">
-        <v>0.38615</v>
+        <v>467.789277</v>
       </c>
       <c r="O24">
-        <v>0.0006010085142322917</v>
+        <v>0.3379177477501335</v>
       </c>
       <c r="P24">
-        <v>0.0006010467565081857</v>
+        <v>0.3379969435488647</v>
       </c>
       <c r="Q24">
-        <v>0.8061312021777778</v>
+        <v>751.9824897201481</v>
       </c>
       <c r="R24">
-        <v>7.2551808196</v>
+        <v>6767.842407481332</v>
       </c>
       <c r="S24">
-        <v>3.98775148990907E-05</v>
+        <v>0.02797237978440095</v>
       </c>
       <c r="T24">
-        <v>4.869240601408843E-05</v>
+        <v>0.03684791742358447</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>6.262834666666667</v>
+        <v>4.822572</v>
       </c>
       <c r="H25">
-        <v>18.788504</v>
+        <v>14.467716</v>
       </c>
       <c r="I25">
-        <v>0.06635099828831695</v>
+        <v>0.08277866424785882</v>
       </c>
       <c r="J25">
-        <v>0.08101267578078226</v>
+        <v>0.1090184929978733</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>88.299099</v>
+        <v>123.632576</v>
       </c>
       <c r="N25">
-        <v>264.897297</v>
+        <v>370.897728</v>
       </c>
       <c r="O25">
-        <v>0.4122893458348313</v>
+        <v>0.2679260321980438</v>
       </c>
       <c r="P25">
-        <v>0.4123155798773419</v>
+        <v>0.2679888244493004</v>
       </c>
       <c r="Q25">
-        <v>553.0026582526319</v>
+        <v>596.2269993054721</v>
       </c>
       <c r="R25">
-        <v>4977.023924273688</v>
+        <v>5366.042993749248</v>
       </c>
       <c r="S25">
-        <v>0.0273558096797782</v>
+        <v>0.02217855906258288</v>
       </c>
       <c r="T25">
-        <v>0.03340278839196833</v>
+        <v>0.02921573778173435</v>
       </c>
     </row>
   </sheetData>
